--- a/StockAnalyzer/EdgarProvider.xlsx
+++ b/StockAnalyzer/EdgarProvider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466F9AE-97A7-4AB3-A76F-3DE15F96387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF46D7-C294-4B3B-876C-6D65EAC8CE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Symbol</t>
   </si>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E18A8A-BF2A-4118-BD06-E16FC263FB96}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -731,6 +731,126 @@
       </c>
       <c r="M18">
         <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45323</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45352</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45383</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45413</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45444</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45292</v>
+      </c>
+      <c r="M21" s="1">
+        <v>45323</v>
+      </c>
+      <c r="N21" s="1">
+        <v>45352</v>
+      </c>
+      <c r="O21" s="1">
+        <v>45383</v>
+      </c>
+      <c r="P21" s="1">
+        <v>45413</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="4">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>40</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="I23">
+        <v>600</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>200</v>
+      </c>
+      <c r="N23">
+        <v>300</v>
+      </c>
+      <c r="O23" s="4">
+        <v>400</v>
+      </c>
+      <c r="P23" s="4">
+        <v>500</v>
+      </c>
+      <c r="Q23">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/StockAnalyzer/EdgarProvider.xlsx
+++ b/StockAnalyzer/EdgarProvider.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF46D7-C294-4B3B-876C-6D65EAC8CE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAAB3A-B6DE-4EB6-B874-A23543E67E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>Symbol</t>
   </si>
@@ -119,6 +120,2321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JNJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$DK$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>39629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43737</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43828</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45018</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$DK$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="1">
+                  <c:v>84912000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87438000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89498000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91558000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93120000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93120000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94682000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94061500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93441000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92870500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92300000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95273500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98247000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100577500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102908000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105529000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108150000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110132000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112114000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>111967500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111821000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>112732500000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113644000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114919000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>116194000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115972000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115750000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118951000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>121347000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121441500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>121536000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>124325000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>126933000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>129808000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>132683000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>133006500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>133330000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>134265000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135200000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133648500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>132097000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>131608000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>131119000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>129854500000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>128590000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130313000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>132036000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>132651000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>133266000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>133338500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>133338500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>133411000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>134821000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>136231000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>138022500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>139814000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>140091500000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>140369000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>140788500000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>141208000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143063000000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>144918000000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>148862500000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>152807000000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>154232500000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>155658000000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>157303000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>156964000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>156625000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>155995000000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>155365000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>155703000000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>152954000000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>151490500000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>150027000000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>155117000000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>155521000000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>156624500000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>157728000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>156372500000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>155017000000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>156698500000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>158380000000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>164536500000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>170693000000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>172793500000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>172793500000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174894000000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>173725500000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>172557000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>174498500000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>176440000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>177834000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>179228000000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>180623000000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>182018000000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>180186500000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>178355000000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>178039500000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>177724000000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>176424000000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>175124000000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>181251000000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>187378000000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>191673500000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>195969000000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>193827500000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>191686000000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>178873500000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>166061000000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>167558000000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>171966000000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>181088000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E764-408B-9086-D2BF8815DF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$DK$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>39629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43464</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43737</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43828</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44563</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45018</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45382</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$DK$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>143992000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139412500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139412500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134833000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136607000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138381000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135293000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134139500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132986000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130579000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128172000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130932000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133692000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133982500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134273000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135405500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136538000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137446000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>138354000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137485500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136617000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135464000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>134311000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>134458000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134605000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133424500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>132244000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134066000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>135888000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>137895500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>139903000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>139131000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>139263000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140194000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>141125000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>142026000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>142927000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>143062000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>143197000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>143731500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>144266000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>141224500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>138183000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>137223000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>136263000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>133600000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130937000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130216000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129495000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>129380000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>129265000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>129143000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>128325500000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>127508000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>127322000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>127136000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>128089500000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>129043000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>123038000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>117033000000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>117562000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>118091000000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>119248500000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>120406000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>121628500000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>122851000000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>124747500000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>126644000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>124369000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>121339500000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>118310000000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>118375000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>118440000000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>121063500000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>123687000000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>121673000000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>115095000000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>114576500000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>114058000000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>112890500000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>111723000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>115141500000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>118560000000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>119630000000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>120700000000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>120299500000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>119899000000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>120112000000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>118445000000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>116778000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>118042500000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>119307000000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>119488000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>119669000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>120542500000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>121416000000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>120816500000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>120217000000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>118712500000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>117208000000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>116745000000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>116282000000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>116998500000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>117715000000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>118783000000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>119851000000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>120340000000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>120829000000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>121680000000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>122531000000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>121620000000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>120709000000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>119598000000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>122370000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E764-408B-9086-D2BF8815DF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1595939600"/>
+        <c:axId val="1595942960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1595939600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595942960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1595942960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595939600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A18CB5-4014-C7B0-0C6E-B0D700E6116B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E18A8A-BF2A-4118-BD06-E16FC263FB96}">
-  <dimension ref="B1:Q23"/>
+  <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +3169,1823 @@
         <v>600</v>
       </c>
     </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C220657-05CF-4161-BB40-2DD5B28745C9}">
+  <dimension ref="A1:DK13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="71" width="12" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
+    <col min="73" max="83" width="12" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="11" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="93" width="12" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11" bestFit="1" customWidth="1"/>
+    <col min="95" max="115" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>39629</v>
+      </c>
+      <c r="C1" s="1">
+        <v>39810</v>
+      </c>
+      <c r="D1" s="1">
+        <v>39992</v>
+      </c>
+      <c r="E1" s="1">
+        <v>39994</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40083</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40086</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40178</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40181</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40268</v>
+      </c>
+      <c r="K1" s="1">
+        <v>40272</v>
+      </c>
+      <c r="L1" s="1">
+        <v>40359</v>
+      </c>
+      <c r="M1" s="1">
+        <v>40363</v>
+      </c>
+      <c r="N1" s="1">
+        <v>40451</v>
+      </c>
+      <c r="O1" s="1">
+        <v>40454</v>
+      </c>
+      <c r="P1" s="1">
+        <v>40543</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>40545</v>
+      </c>
+      <c r="R1" s="1">
+        <v>40633</v>
+      </c>
+      <c r="S1" s="1">
+        <v>40636</v>
+      </c>
+      <c r="T1" s="1">
+        <v>40724</v>
+      </c>
+      <c r="U1" s="1">
+        <v>40727</v>
+      </c>
+      <c r="V1" s="1">
+        <v>40816</v>
+      </c>
+      <c r="W1" s="1">
+        <v>40818</v>
+      </c>
+      <c r="X1" s="1">
+        <v>40908</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>40909</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>40999</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>41000</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>41090</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>41091</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>41182</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>41273</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>41274</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>41364</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>41455</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>41546</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>41547</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>41637</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>41639</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>41728</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>41729</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>41819</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41820</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41910</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>41912</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>42001</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>42092</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>42094</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>42183</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>42185</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>42274</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>42277</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>42369</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>42372</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>42460</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>42463</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>42551</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>42554</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>42643</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>42645</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>42735</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>42736</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>42825</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>42827</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>42916</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>42918</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>43008</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>43009</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>43100</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>43190</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>43191</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>43282</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>43373</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>43464</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>43555</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>43737</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>43738</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>43828</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>43919</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>43921</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>44010</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>44101</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>44104</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>44199</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>44286</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>44290</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>44381</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>44469</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>44472</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>44563</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>44651</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>44654</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>44745</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>44834</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>44836</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>44927</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>45016</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>45018</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>45107</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>45109</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>45199</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>45291</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>45382</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>84912000000</v>
+      </c>
+      <c r="D2">
+        <v>87438000000</v>
+      </c>
+      <c r="F2">
+        <v>91558000000</v>
+      </c>
+      <c r="I2">
+        <v>94682000000</v>
+      </c>
+      <c r="K2">
+        <v>93441000000</v>
+      </c>
+      <c r="M2">
+        <v>92300000000</v>
+      </c>
+      <c r="O2">
+        <v>98247000000</v>
+      </c>
+      <c r="Q2">
+        <v>102908000000</v>
+      </c>
+      <c r="S2">
+        <v>108150000000</v>
+      </c>
+      <c r="U2">
+        <v>112114000000</v>
+      </c>
+      <c r="W2">
+        <v>111821000000</v>
+      </c>
+      <c r="Y2">
+        <v>113644000000</v>
+      </c>
+      <c r="AA2">
+        <v>116194000000</v>
+      </c>
+      <c r="AC2">
+        <v>115750000000</v>
+      </c>
+      <c r="AD2">
+        <v>118951000000</v>
+      </c>
+      <c r="AE2">
+        <v>121347000000</v>
+      </c>
+      <c r="AG2">
+        <v>121536000000</v>
+      </c>
+      <c r="AH2">
+        <v>124325000000</v>
+      </c>
+      <c r="AI2">
+        <v>126933000000</v>
+      </c>
+      <c r="AK2">
+        <v>132683000000</v>
+      </c>
+      <c r="AM2">
+        <v>133330000000</v>
+      </c>
+      <c r="AO2">
+        <v>135200000000</v>
+      </c>
+      <c r="AQ2">
+        <v>132097000000</v>
+      </c>
+      <c r="AS2">
+        <v>131119000000</v>
+      </c>
+      <c r="AU2">
+        <v>128590000000</v>
+      </c>
+      <c r="AW2">
+        <v>132036000000</v>
+      </c>
+      <c r="AY2">
+        <v>133266000000</v>
+      </c>
+      <c r="BB2">
+        <v>133411000000</v>
+      </c>
+      <c r="BD2">
+        <v>136231000000</v>
+      </c>
+      <c r="BF2">
+        <v>139814000000</v>
+      </c>
+      <c r="BH2">
+        <v>140369000000</v>
+      </c>
+      <c r="BJ2">
+        <v>141208000000</v>
+      </c>
+      <c r="BL2">
+        <v>144918000000</v>
+      </c>
+      <c r="BN2">
+        <v>152807000000</v>
+      </c>
+      <c r="BP2">
+        <v>155658000000</v>
+      </c>
+      <c r="BQ2">
+        <v>157303000000</v>
+      </c>
+      <c r="BS2">
+        <v>156625000000</v>
+      </c>
+      <c r="BU2">
+        <v>155365000000</v>
+      </c>
+      <c r="BV2">
+        <v>155703000000</v>
+      </c>
+      <c r="BW2">
+        <v>152954000000</v>
+      </c>
+      <c r="BY2">
+        <v>150027000000</v>
+      </c>
+      <c r="BZ2">
+        <v>155117000000</v>
+      </c>
+      <c r="CA2">
+        <v>155521000000</v>
+      </c>
+      <c r="CC2">
+        <v>157728000000</v>
+      </c>
+      <c r="CE2">
+        <v>155017000000</v>
+      </c>
+      <c r="CG2">
+        <v>158380000000</v>
+      </c>
+      <c r="CI2">
+        <v>170693000000</v>
+      </c>
+      <c r="CL2">
+        <v>174894000000</v>
+      </c>
+      <c r="CN2">
+        <v>172557000000</v>
+      </c>
+      <c r="CP2">
+        <v>176440000000</v>
+      </c>
+      <c r="CR2">
+        <v>179228000000</v>
+      </c>
+      <c r="CT2">
+        <v>182018000000</v>
+      </c>
+      <c r="CV2">
+        <v>178355000000</v>
+      </c>
+      <c r="CX2">
+        <v>177724000000</v>
+      </c>
+      <c r="CZ2">
+        <v>175124000000</v>
+      </c>
+      <c r="DB2">
+        <v>187378000000</v>
+      </c>
+      <c r="DD2">
+        <v>195969000000</v>
+      </c>
+      <c r="DF2">
+        <v>191686000000</v>
+      </c>
+      <c r="DH2">
+        <v>166061000000</v>
+      </c>
+      <c r="DI2">
+        <v>167558000000</v>
+      </c>
+      <c r="DJ2">
+        <v>171966000000</v>
+      </c>
+      <c r="DK2">
+        <v>181088000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>143992000000</v>
+      </c>
+      <c r="E3">
+        <v>134833000000</v>
+      </c>
+      <c r="G3">
+        <v>138381000000</v>
+      </c>
+      <c r="H3">
+        <v>135293000000</v>
+      </c>
+      <c r="J3">
+        <v>132986000000</v>
+      </c>
+      <c r="L3">
+        <v>128172000000</v>
+      </c>
+      <c r="N3">
+        <v>133692000000</v>
+      </c>
+      <c r="P3">
+        <v>134273000000</v>
+      </c>
+      <c r="R3">
+        <v>136538000000</v>
+      </c>
+      <c r="T3">
+        <v>138354000000</v>
+      </c>
+      <c r="V3">
+        <v>136617000000</v>
+      </c>
+      <c r="X3">
+        <v>134311000000</v>
+      </c>
+      <c r="Z3">
+        <v>134605000000</v>
+      </c>
+      <c r="AB3">
+        <v>132244000000</v>
+      </c>
+      <c r="AD3">
+        <v>135888000000</v>
+      </c>
+      <c r="AF3">
+        <v>139903000000</v>
+      </c>
+      <c r="AG3">
+        <v>139131000000</v>
+      </c>
+      <c r="AH3">
+        <v>139263000000</v>
+      </c>
+      <c r="AJ3">
+        <v>141125000000</v>
+      </c>
+      <c r="AL3">
+        <v>142927000000</v>
+      </c>
+      <c r="AN3">
+        <v>143197000000</v>
+      </c>
+      <c r="AP3">
+        <v>144266000000</v>
+      </c>
+      <c r="AR3">
+        <v>138183000000</v>
+      </c>
+      <c r="AT3">
+        <v>136263000000</v>
+      </c>
+      <c r="AV3">
+        <v>130937000000</v>
+      </c>
+      <c r="AX3">
+        <v>129495000000</v>
+      </c>
+      <c r="AZ3">
+        <v>129265000000</v>
+      </c>
+      <c r="BA3">
+        <v>129143000000</v>
+      </c>
+      <c r="BC3">
+        <v>127508000000</v>
+      </c>
+      <c r="BE3">
+        <v>127136000000</v>
+      </c>
+      <c r="BG3">
+        <v>129043000000</v>
+      </c>
+      <c r="BI3">
+        <v>117033000000</v>
+      </c>
+      <c r="BK3">
+        <v>118091000000</v>
+      </c>
+      <c r="BM3">
+        <v>120406000000</v>
+      </c>
+      <c r="BO3">
+        <v>122851000000</v>
+      </c>
+      <c r="BQ3">
+        <v>126644000000</v>
+      </c>
+      <c r="BR3">
+        <v>124369000000</v>
+      </c>
+      <c r="BT3">
+        <v>118310000000</v>
+      </c>
+      <c r="BV3">
+        <v>118440000000</v>
+      </c>
+      <c r="BX3">
+        <v>123687000000</v>
+      </c>
+      <c r="BY3">
+        <v>121673000000</v>
+      </c>
+      <c r="BZ3">
+        <v>115095000000</v>
+      </c>
+      <c r="CB3">
+        <v>114058000000</v>
+      </c>
+      <c r="CD3">
+        <v>111723000000</v>
+      </c>
+      <c r="CF3">
+        <v>118560000000</v>
+      </c>
+      <c r="CH3">
+        <v>120700000000</v>
+      </c>
+      <c r="CJ3">
+        <v>119899000000</v>
+      </c>
+      <c r="CK3">
+        <v>120112000000</v>
+      </c>
+      <c r="CM3">
+        <v>116778000000</v>
+      </c>
+      <c r="CO3">
+        <v>119307000000</v>
+      </c>
+      <c r="CQ3">
+        <v>119669000000</v>
+      </c>
+      <c r="CS3">
+        <v>121416000000</v>
+      </c>
+      <c r="CU3">
+        <v>120217000000</v>
+      </c>
+      <c r="CW3">
+        <v>117208000000</v>
+      </c>
+      <c r="CY3">
+        <v>116282000000</v>
+      </c>
+      <c r="DA3">
+        <v>117715000000</v>
+      </c>
+      <c r="DC3">
+        <v>119851000000</v>
+      </c>
+      <c r="DE3">
+        <v>120829000000</v>
+      </c>
+      <c r="DG3">
+        <v>122531000000</v>
+      </c>
+      <c r="DI3">
+        <v>120709000000</v>
+      </c>
+      <c r="DJ3">
+        <v>119598000000</v>
+      </c>
+      <c r="DK3">
+        <v>122370000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39629</v>
+      </c>
+      <c r="C11" s="1">
+        <v>39810</v>
+      </c>
+      <c r="D11" s="1">
+        <v>39992</v>
+      </c>
+      <c r="E11" s="1">
+        <v>39994</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40083</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40086</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40178</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40181</v>
+      </c>
+      <c r="J11" s="1">
+        <v>40268</v>
+      </c>
+      <c r="K11" s="1">
+        <v>40272</v>
+      </c>
+      <c r="L11" s="1">
+        <v>40359</v>
+      </c>
+      <c r="M11" s="1">
+        <v>40363</v>
+      </c>
+      <c r="N11" s="1">
+        <v>40451</v>
+      </c>
+      <c r="O11" s="1">
+        <v>40454</v>
+      </c>
+      <c r="P11" s="1">
+        <v>40543</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>40545</v>
+      </c>
+      <c r="R11" s="1">
+        <v>40633</v>
+      </c>
+      <c r="S11" s="1">
+        <v>40636</v>
+      </c>
+      <c r="T11" s="1">
+        <v>40724</v>
+      </c>
+      <c r="U11" s="1">
+        <v>40727</v>
+      </c>
+      <c r="V11" s="1">
+        <v>40816</v>
+      </c>
+      <c r="W11" s="1">
+        <v>40818</v>
+      </c>
+      <c r="X11" s="1">
+        <v>40908</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>40909</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>40999</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>41000</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>41090</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>41091</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>41182</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>41273</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>41274</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>41364</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>41455</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>41546</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>41547</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>41637</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>41639</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>41728</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>41729</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>41819</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>41820</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>41910</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>41912</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>42001</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>42004</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>42092</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>42094</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>42183</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>42185</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>42274</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>42277</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>42369</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>42372</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>42460</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>42463</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>42551</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>42554</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>42643</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>42645</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>42735</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>42736</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>42825</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>42827</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>42916</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>42918</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>43008</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>43009</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>43100</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>43190</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>43191</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>43281</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>43282</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>43373</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>43464</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>43465</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>43555</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>43646</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>43737</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>43738</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>43828</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>43830</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>43919</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>43921</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>44010</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>44012</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>44101</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>44104</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>44196</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>44199</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>44286</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>44290</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>44377</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>44381</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>44469</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>44472</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>44561</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>44563</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>44651</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>44654</v>
+      </c>
+      <c r="CW11" s="1">
+        <v>44742</v>
+      </c>
+      <c r="CX11" s="1">
+        <v>44745</v>
+      </c>
+      <c r="CY11" s="1">
+        <v>44834</v>
+      </c>
+      <c r="CZ11" s="1">
+        <v>44836</v>
+      </c>
+      <c r="DA11" s="1">
+        <v>44926</v>
+      </c>
+      <c r="DB11" s="1">
+        <v>44927</v>
+      </c>
+      <c r="DC11" s="1">
+        <v>45016</v>
+      </c>
+      <c r="DD11" s="1">
+        <v>45018</v>
+      </c>
+      <c r="DE11" s="1">
+        <v>45107</v>
+      </c>
+      <c r="DF11" s="1">
+        <v>45109</v>
+      </c>
+      <c r="DG11" s="1">
+        <v>45199</v>
+      </c>
+      <c r="DH11" s="1">
+        <v>45200</v>
+      </c>
+      <c r="DI11" s="1">
+        <v>45291</v>
+      </c>
+      <c r="DJ11" s="1">
+        <v>45382</v>
+      </c>
+      <c r="DK11" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>84912000000</v>
+      </c>
+      <c r="D12">
+        <v>87438000000</v>
+      </c>
+      <c r="E12">
+        <v>89498000000</v>
+      </c>
+      <c r="F12">
+        <v>91558000000</v>
+      </c>
+      <c r="G12">
+        <v>93120000000</v>
+      </c>
+      <c r="H12">
+        <v>93120000000</v>
+      </c>
+      <c r="I12">
+        <v>94682000000</v>
+      </c>
+      <c r="J12">
+        <v>94061500000</v>
+      </c>
+      <c r="K12">
+        <v>93441000000</v>
+      </c>
+      <c r="L12">
+        <v>92870500000</v>
+      </c>
+      <c r="M12">
+        <v>92300000000</v>
+      </c>
+      <c r="N12">
+        <v>95273500000</v>
+      </c>
+      <c r="O12">
+        <v>98247000000</v>
+      </c>
+      <c r="P12">
+        <v>100577500000</v>
+      </c>
+      <c r="Q12">
+        <v>102908000000</v>
+      </c>
+      <c r="R12">
+        <v>105529000000</v>
+      </c>
+      <c r="S12">
+        <v>108150000000</v>
+      </c>
+      <c r="T12">
+        <v>110132000000</v>
+      </c>
+      <c r="U12">
+        <v>112114000000</v>
+      </c>
+      <c r="V12">
+        <v>111967500000</v>
+      </c>
+      <c r="W12">
+        <v>111821000000</v>
+      </c>
+      <c r="X12">
+        <v>112732500000</v>
+      </c>
+      <c r="Y12">
+        <v>113644000000</v>
+      </c>
+      <c r="Z12">
+        <v>114919000000</v>
+      </c>
+      <c r="AA12">
+        <v>116194000000</v>
+      </c>
+      <c r="AB12">
+        <v>115972000000</v>
+      </c>
+      <c r="AC12">
+        <v>115750000000</v>
+      </c>
+      <c r="AD12">
+        <v>118951000000</v>
+      </c>
+      <c r="AE12">
+        <v>121347000000</v>
+      </c>
+      <c r="AF12">
+        <v>121441500000</v>
+      </c>
+      <c r="AG12">
+        <v>121536000000</v>
+      </c>
+      <c r="AH12">
+        <v>124325000000</v>
+      </c>
+      <c r="AI12">
+        <v>126933000000</v>
+      </c>
+      <c r="AJ12">
+        <v>129808000000</v>
+      </c>
+      <c r="AK12">
+        <v>132683000000</v>
+      </c>
+      <c r="AL12">
+        <v>133006500000</v>
+      </c>
+      <c r="AM12">
+        <v>133330000000</v>
+      </c>
+      <c r="AN12">
+        <v>134265000000</v>
+      </c>
+      <c r="AO12">
+        <v>135200000000</v>
+      </c>
+      <c r="AP12">
+        <v>133648500000</v>
+      </c>
+      <c r="AQ12">
+        <v>132097000000</v>
+      </c>
+      <c r="AR12">
+        <v>131608000000</v>
+      </c>
+      <c r="AS12">
+        <v>131119000000</v>
+      </c>
+      <c r="AT12">
+        <v>129854500000</v>
+      </c>
+      <c r="AU12">
+        <v>128590000000</v>
+      </c>
+      <c r="AV12">
+        <v>130313000000</v>
+      </c>
+      <c r="AW12">
+        <v>132036000000</v>
+      </c>
+      <c r="AX12">
+        <v>132651000000</v>
+      </c>
+      <c r="AY12">
+        <v>133266000000</v>
+      </c>
+      <c r="AZ12">
+        <v>133338500000</v>
+      </c>
+      <c r="BA12">
+        <v>133338500000</v>
+      </c>
+      <c r="BB12">
+        <v>133411000000</v>
+      </c>
+      <c r="BC12">
+        <v>134821000000</v>
+      </c>
+      <c r="BD12">
+        <v>136231000000</v>
+      </c>
+      <c r="BE12">
+        <v>138022500000</v>
+      </c>
+      <c r="BF12">
+        <v>139814000000</v>
+      </c>
+      <c r="BG12">
+        <v>140091500000</v>
+      </c>
+      <c r="BH12">
+        <v>140369000000</v>
+      </c>
+      <c r="BI12">
+        <v>140788500000</v>
+      </c>
+      <c r="BJ12">
+        <v>141208000000</v>
+      </c>
+      <c r="BK12">
+        <v>143063000000</v>
+      </c>
+      <c r="BL12">
+        <v>144918000000</v>
+      </c>
+      <c r="BM12">
+        <v>148862500000</v>
+      </c>
+      <c r="BN12">
+        <v>152807000000</v>
+      </c>
+      <c r="BO12">
+        <v>154232500000</v>
+      </c>
+      <c r="BP12">
+        <v>155658000000</v>
+      </c>
+      <c r="BQ12">
+        <v>157303000000</v>
+      </c>
+      <c r="BR12">
+        <v>156964000000</v>
+      </c>
+      <c r="BS12">
+        <v>156625000000</v>
+      </c>
+      <c r="BT12">
+        <v>155995000000</v>
+      </c>
+      <c r="BU12">
+        <v>155365000000</v>
+      </c>
+      <c r="BV12">
+        <v>155703000000</v>
+      </c>
+      <c r="BW12">
+        <v>152954000000</v>
+      </c>
+      <c r="BX12">
+        <v>151490500000</v>
+      </c>
+      <c r="BY12">
+        <v>150027000000</v>
+      </c>
+      <c r="BZ12">
+        <v>155117000000</v>
+      </c>
+      <c r="CA12">
+        <v>155521000000</v>
+      </c>
+      <c r="CB12">
+        <v>156624500000</v>
+      </c>
+      <c r="CC12">
+        <v>157728000000</v>
+      </c>
+      <c r="CD12">
+        <v>156372500000</v>
+      </c>
+      <c r="CE12">
+        <v>155017000000</v>
+      </c>
+      <c r="CF12">
+        <v>156698500000</v>
+      </c>
+      <c r="CG12">
+        <v>158380000000</v>
+      </c>
+      <c r="CH12">
+        <v>164536500000</v>
+      </c>
+      <c r="CI12">
+        <v>170693000000</v>
+      </c>
+      <c r="CJ12">
+        <v>172793500000</v>
+      </c>
+      <c r="CK12">
+        <v>172793500000</v>
+      </c>
+      <c r="CL12">
+        <v>174894000000</v>
+      </c>
+      <c r="CM12">
+        <v>173725500000</v>
+      </c>
+      <c r="CN12">
+        <v>172557000000</v>
+      </c>
+      <c r="CO12">
+        <v>174498500000</v>
+      </c>
+      <c r="CP12">
+        <v>176440000000</v>
+      </c>
+      <c r="CQ12">
+        <v>177834000000</v>
+      </c>
+      <c r="CR12">
+        <v>179228000000</v>
+      </c>
+      <c r="CS12">
+        <v>180623000000</v>
+      </c>
+      <c r="CT12">
+        <v>182018000000</v>
+      </c>
+      <c r="CU12">
+        <v>180186500000</v>
+      </c>
+      <c r="CV12">
+        <v>178355000000</v>
+      </c>
+      <c r="CW12">
+        <v>178039500000</v>
+      </c>
+      <c r="CX12">
+        <v>177724000000</v>
+      </c>
+      <c r="CY12">
+        <v>176424000000</v>
+      </c>
+      <c r="CZ12">
+        <v>175124000000</v>
+      </c>
+      <c r="DA12">
+        <v>181251000000</v>
+      </c>
+      <c r="DB12">
+        <v>187378000000</v>
+      </c>
+      <c r="DC12">
+        <v>191673500000</v>
+      </c>
+      <c r="DD12">
+        <v>195969000000</v>
+      </c>
+      <c r="DE12">
+        <v>193827500000</v>
+      </c>
+      <c r="DF12">
+        <v>191686000000</v>
+      </c>
+      <c r="DG12">
+        <v>178873500000</v>
+      </c>
+      <c r="DH12">
+        <v>166061000000</v>
+      </c>
+      <c r="DI12">
+        <v>167558000000</v>
+      </c>
+      <c r="DJ12">
+        <v>171966000000</v>
+      </c>
+      <c r="DK12">
+        <v>181088000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>143992000000</v>
+      </c>
+      <c r="C13">
+        <v>139412500000</v>
+      </c>
+      <c r="D13">
+        <v>139412500000</v>
+      </c>
+      <c r="E13">
+        <v>134833000000</v>
+      </c>
+      <c r="F13">
+        <v>136607000000</v>
+      </c>
+      <c r="G13">
+        <v>138381000000</v>
+      </c>
+      <c r="H13">
+        <v>135293000000</v>
+      </c>
+      <c r="I13">
+        <v>134139500000</v>
+      </c>
+      <c r="J13">
+        <v>132986000000</v>
+      </c>
+      <c r="K13">
+        <v>130579000000</v>
+      </c>
+      <c r="L13">
+        <v>128172000000</v>
+      </c>
+      <c r="M13">
+        <v>130932000000</v>
+      </c>
+      <c r="N13">
+        <v>133692000000</v>
+      </c>
+      <c r="O13">
+        <v>133982500000</v>
+      </c>
+      <c r="P13">
+        <v>134273000000</v>
+      </c>
+      <c r="Q13">
+        <v>135405500000</v>
+      </c>
+      <c r="R13">
+        <v>136538000000</v>
+      </c>
+      <c r="S13">
+        <v>137446000000</v>
+      </c>
+      <c r="T13">
+        <v>138354000000</v>
+      </c>
+      <c r="U13">
+        <v>137485500000</v>
+      </c>
+      <c r="V13">
+        <v>136617000000</v>
+      </c>
+      <c r="W13">
+        <v>135464000000</v>
+      </c>
+      <c r="X13">
+        <v>134311000000</v>
+      </c>
+      <c r="Y13">
+        <v>134458000000</v>
+      </c>
+      <c r="Z13">
+        <v>134605000000</v>
+      </c>
+      <c r="AA13">
+        <v>133424500000</v>
+      </c>
+      <c r="AB13">
+        <v>132244000000</v>
+      </c>
+      <c r="AC13">
+        <v>134066000000</v>
+      </c>
+      <c r="AD13">
+        <v>135888000000</v>
+      </c>
+      <c r="AE13">
+        <v>137895500000</v>
+      </c>
+      <c r="AF13">
+        <v>139903000000</v>
+      </c>
+      <c r="AG13">
+        <v>139131000000</v>
+      </c>
+      <c r="AH13">
+        <v>139263000000</v>
+      </c>
+      <c r="AI13">
+        <v>140194000000</v>
+      </c>
+      <c r="AJ13">
+        <v>141125000000</v>
+      </c>
+      <c r="AK13">
+        <v>142026000000</v>
+      </c>
+      <c r="AL13">
+        <v>142927000000</v>
+      </c>
+      <c r="AM13">
+        <v>143062000000</v>
+      </c>
+      <c r="AN13">
+        <v>143197000000</v>
+      </c>
+      <c r="AO13">
+        <v>143731500000</v>
+      </c>
+      <c r="AP13">
+        <v>144266000000</v>
+      </c>
+      <c r="AQ13">
+        <v>141224500000</v>
+      </c>
+      <c r="AR13">
+        <v>138183000000</v>
+      </c>
+      <c r="AS13">
+        <v>137223000000</v>
+      </c>
+      <c r="AT13">
+        <v>136263000000</v>
+      </c>
+      <c r="AU13">
+        <v>133600000000</v>
+      </c>
+      <c r="AV13">
+        <v>130937000000</v>
+      </c>
+      <c r="AW13">
+        <v>130216000000</v>
+      </c>
+      <c r="AX13">
+        <v>129495000000</v>
+      </c>
+      <c r="AY13">
+        <v>129380000000</v>
+      </c>
+      <c r="AZ13">
+        <v>129265000000</v>
+      </c>
+      <c r="BA13">
+        <v>129143000000</v>
+      </c>
+      <c r="BB13">
+        <v>128325500000</v>
+      </c>
+      <c r="BC13">
+        <v>127508000000</v>
+      </c>
+      <c r="BD13">
+        <v>127322000000</v>
+      </c>
+      <c r="BE13">
+        <v>127136000000</v>
+      </c>
+      <c r="BF13">
+        <v>128089500000</v>
+      </c>
+      <c r="BG13">
+        <v>129043000000</v>
+      </c>
+      <c r="BH13">
+        <v>123038000000</v>
+      </c>
+      <c r="BI13">
+        <v>117033000000</v>
+      </c>
+      <c r="BJ13">
+        <v>117562000000</v>
+      </c>
+      <c r="BK13">
+        <v>118091000000</v>
+      </c>
+      <c r="BL13">
+        <v>119248500000</v>
+      </c>
+      <c r="BM13">
+        <v>120406000000</v>
+      </c>
+      <c r="BN13">
+        <v>121628500000</v>
+      </c>
+      <c r="BO13">
+        <v>122851000000</v>
+      </c>
+      <c r="BP13">
+        <v>124747500000</v>
+      </c>
+      <c r="BQ13">
+        <v>126644000000</v>
+      </c>
+      <c r="BR13">
+        <v>124369000000</v>
+      </c>
+      <c r="BS13">
+        <v>121339500000</v>
+      </c>
+      <c r="BT13">
+        <v>118310000000</v>
+      </c>
+      <c r="BU13">
+        <v>118375000000</v>
+      </c>
+      <c r="BV13">
+        <v>118440000000</v>
+      </c>
+      <c r="BW13">
+        <v>121063500000</v>
+      </c>
+      <c r="BX13">
+        <v>123687000000</v>
+      </c>
+      <c r="BY13">
+        <v>121673000000</v>
+      </c>
+      <c r="BZ13">
+        <v>115095000000</v>
+      </c>
+      <c r="CA13">
+        <v>114576500000</v>
+      </c>
+      <c r="CB13">
+        <v>114058000000</v>
+      </c>
+      <c r="CC13">
+        <v>112890500000</v>
+      </c>
+      <c r="CD13">
+        <v>111723000000</v>
+      </c>
+      <c r="CE13">
+        <v>115141500000</v>
+      </c>
+      <c r="CF13">
+        <v>118560000000</v>
+      </c>
+      <c r="CG13">
+        <v>119630000000</v>
+      </c>
+      <c r="CH13">
+        <v>120700000000</v>
+      </c>
+      <c r="CI13">
+        <v>120299500000</v>
+      </c>
+      <c r="CJ13">
+        <v>119899000000</v>
+      </c>
+      <c r="CK13">
+        <v>120112000000</v>
+      </c>
+      <c r="CL13">
+        <v>118445000000</v>
+      </c>
+      <c r="CM13">
+        <v>116778000000</v>
+      </c>
+      <c r="CN13">
+        <v>118042500000</v>
+      </c>
+      <c r="CO13">
+        <v>119307000000</v>
+      </c>
+      <c r="CP13">
+        <v>119488000000</v>
+      </c>
+      <c r="CQ13">
+        <v>119669000000</v>
+      </c>
+      <c r="CR13">
+        <v>120542500000</v>
+      </c>
+      <c r="CS13">
+        <v>121416000000</v>
+      </c>
+      <c r="CT13">
+        <v>120816500000</v>
+      </c>
+      <c r="CU13">
+        <v>120217000000</v>
+      </c>
+      <c r="CV13">
+        <v>118712500000</v>
+      </c>
+      <c r="CW13">
+        <v>117208000000</v>
+      </c>
+      <c r="CX13">
+        <v>116745000000</v>
+      </c>
+      <c r="CY13">
+        <v>116282000000</v>
+      </c>
+      <c r="CZ13">
+        <v>116998500000</v>
+      </c>
+      <c r="DA13">
+        <v>117715000000</v>
+      </c>
+      <c r="DB13">
+        <v>118783000000</v>
+      </c>
+      <c r="DC13">
+        <v>119851000000</v>
+      </c>
+      <c r="DD13">
+        <v>120340000000</v>
+      </c>
+      <c r="DE13">
+        <v>120829000000</v>
+      </c>
+      <c r="DF13">
+        <v>121680000000</v>
+      </c>
+      <c r="DG13">
+        <v>122531000000</v>
+      </c>
+      <c r="DH13">
+        <v>121620000000</v>
+      </c>
+      <c r="DI13">
+        <v>120709000000</v>
+      </c>
+      <c r="DJ13">
+        <v>119598000000</v>
+      </c>
+      <c r="DK13">
+        <v>122370000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/StockAnalyzer/EdgarProvider.xlsx
+++ b/StockAnalyzer/EdgarProvider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E60B7-B616-4AD5-9F0A-9739584E809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1443F3-81BE-45CB-8F79-72539464B919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
@@ -19221,8 +19221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF047-04C9-4B21-B090-6E9696B72412}">
   <dimension ref="A1:AAN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StockAnalyzer/EdgarProvider.xlsx
+++ b/StockAnalyzer/EdgarProvider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1443F3-81BE-45CB-8F79-72539464B919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D21909-9311-496D-AD7B-C96F4C897787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
+    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="2" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19219,10 +19219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF047-04C9-4B21-B090-6E9696B72412}">
-  <dimension ref="A1:AAN29"/>
+  <dimension ref="A1:AAN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26247,6 +26247,124 @@
         <v>5338000000</v>
       </c>
     </row>
+    <row r="34" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="1"/>
+      <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
+      <c r="DE34" s="1"/>
+      <c r="DF34" s="1"/>
+      <c r="DG34" s="1"/>
+      <c r="DH34" s="1"/>
+      <c r="DI34" s="1"/>
+      <c r="DJ34" s="1"/>
+      <c r="DK34" s="1"/>
+      <c r="DL34" s="1"/>
+      <c r="DM34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
